--- a/Stenvand/5min_hour_comparison.xlsx
+++ b/Stenvand/5min_hour_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proco\Documents\GitHub\AutoMills\Stenvand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEF3E14-1DCE-422C-BC30-C1AEC01A7CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C84AE-544D-4614-80C8-7D55FDC01722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="9770" windowHeight="9330" xr2:uid="{BDBC2E9B-0995-4E35-B65F-8CA0C6A23473}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{BDBC2E9B-0995-4E35-B65F-8CA0C6A23473}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="63">
   <si>
     <t>a11</t>
   </si>
@@ -53,16 +53,201 @@
   </si>
   <si>
     <t xml:space="preserve"> 2022-05-28 19:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-04-26 13:55:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-04 18:05:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-15 20:05:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-16 18:55:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-21 01:35:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-22 19:55:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-13 00:20:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-14 22:25:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-28 19:00:00 </t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-04-26 14:00:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-04 18:00:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-14 23:00:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-15 20:00:00        </t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>5_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-20 23:00:00</t>
+  </si>
+  <si>
+    <t>north_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-04-26 14:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-15 20:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-16 18:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-21 01:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-22 19:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-28 18:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-04-26 13:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-04 18:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-19 20:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-20 22:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-28 12:30:00</t>
+  </si>
+  <si>
+    <t>north_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-19 20:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-28 13:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-14 23:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-16 19:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-19 03:00:00</t>
+  </si>
+  <si>
+    <t>north_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-14 22:25:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-19 19:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-04 17:55:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-13 00:25:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-15 20:25:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-20 22:45:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-22 20:25:00        </t>
+  </si>
+  <si>
+    <t>south_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-04 14:00:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-15 21:00:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-20 23:00:00        </t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-22 20:00:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-21 01:25:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-16 19:00:00        </t>
+  </si>
+  <si>
+    <t>south_y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-13 00:10:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-19 02:55:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-19 19:45:00        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-05-21 01:30:00        </t>
+  </si>
+  <si>
+    <t>south</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,8 +273,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,48 +600,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5EBE5C-F105-4889-98B7-5A7463EFDE2E}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.6328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.6328125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.6328125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.6328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="21.6328125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="21.6328125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.6328125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="21.6328125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21.6328125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="J12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="P13" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
